--- a/tables/BookdownSDGVars.xlsx
+++ b/tables/BookdownSDGVars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\cdm-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D409ED2-D04C-4BE6-9D62-92C12969D83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5A585-9266-4553-B402-85434AF8EC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" activeTab="4" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
   </bookViews>
@@ -14727,7 +14727,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tables/BookdownSDGVars.xlsx
+++ b/tables/BookdownSDGVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\cdm-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5A585-9266-4553-B402-85434AF8EC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B8BE36-D03A-4D17-B2D6-64824F248618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" activeTab="4" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" activeTab="1" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
   <si>
     <t xml:space="preserve">   variables</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Unreactive solid P</t>
   </si>
   <si>
-    <t>Salinity (PSU)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (mmol m^-3^ porewater)</t>
   </si>
   <si>
@@ -404,12 +401,108 @@
   <si>
     <t>CaCO~3~</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Macroalgae</t>
+  </si>
+  <si>
+    <t>Microphytobenthos</t>
+  </si>
+  <si>
+    <t>Labile DOC</t>
+  </si>
+  <si>
+    <t>Labile DON</t>
+  </si>
+  <si>
+    <t>Labile DOP</t>
+  </si>
+  <si>
+    <t>Macroaglage C</t>
+  </si>
+  <si>
+    <t>Macroaglage N</t>
+  </si>
+  <si>
+    <t>Macroaglage P</t>
+  </si>
+  <si>
+    <t>NO~3~^-^</t>
+  </si>
+  <si>
+    <t>N~2~O</t>
+  </si>
+  <si>
+    <t>NO~2~</t>
+  </si>
+  <si>
+    <t>N~2~</t>
+  </si>
+  <si>
+    <t>Adsorbed P</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CO~2~</t>
+    </r>
+  </si>
+  <si>
+    <t>Mn^2+^</t>
+  </si>
+  <si>
+    <t>Crystalline MnO~2~</t>
+  </si>
+  <si>
+    <t>Fe^2+^</t>
+  </si>
+  <si>
+    <t>Crystalline Fe(OH)~3~</t>
+  </si>
+  <si>
+    <t>Ca^2+^</t>
+  </si>
+  <si>
+    <t>Adsorbed N</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (PSU)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +537,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -11363,279 +11462,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937828CD-D255-4E03-B426-28421FBF7C92}">
-  <dimension ref="A2:A46"/>
+  <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="str">
-        <f>'[1]OMM2 104'!A1</f>
-        <v xml:space="preserve">   variables</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="str">
         <f>Import!A2</f>
         <v xml:space="preserve">      'salt'</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f>VLOOKUP($A3,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="str">
         <f>Import!A4</f>
         <v xml:space="preserve">       'mpb'</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>VLOOKUP($A4,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Microphytobenthos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
         <f>Import!A5</f>
         <v xml:space="preserve">      'docl'</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>VLOOKUP($A5,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile DOC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="str">
         <f>Import!A6</f>
         <v xml:space="preserve">      'docr'</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>VLOOKUP($A6,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory DOC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="str">
         <f>Import!A7</f>
         <v xml:space="preserve">      'donl'</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f>VLOOKUP($A7,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile DON</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="str">
         <f>Import!A8</f>
         <v xml:space="preserve">      'donr'</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>VLOOKUP($A8,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory DON</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f>Import!A9</f>
         <v xml:space="preserve">      'dopl'</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>VLOOKUP($A9,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile DOP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f>Import!A10</f>
         <v xml:space="preserve">      'dopr'</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>VLOOKUP($A10,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory DOP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f>Import!A11</f>
         <v xml:space="preserve">      'pocs'</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>VLOOKUP($A11,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macroaglage C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f>Import!A12</f>
         <v xml:space="preserve">      'pons'</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>VLOOKUP($A12,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macroaglage N</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f>Import!A13</f>
         <v xml:space="preserve">      'pops'</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>VLOOKUP($A13,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macroaglage P</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="str">
         <f>Import!A14</f>
         <v xml:space="preserve">      'pocl'</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>VLOOKUP($A14,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile POC</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
         <f>Import!A15</f>
         <v xml:space="preserve">      'pocr'</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>VLOOKUP($A15,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory POC</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
         <f>Import!A16</f>
         <v xml:space="preserve">      'ponl'</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f>VLOOKUP($A16,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile PON</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
         <f>Import!A17</f>
         <v xml:space="preserve">      'ponr'</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>VLOOKUP($A17,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory PON</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
         <f>Import!A18</f>
         <v xml:space="preserve">      'popl'</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f>VLOOKUP($A18,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Labile POP</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
         <f>Import!A19</f>
         <v xml:space="preserve">      'popr'</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f>VLOOKUP($A19,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Refractory POP</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
         <f>Import!A20</f>
         <v xml:space="preserve">       'oxy'</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f>VLOOKUP($A20,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>O~2~</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
         <f>Import!A21</f>
         <v xml:space="preserve">       'nit'</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f>VLOOKUP($A21,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>NO~3~^-^</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f>Import!A22</f>
         <v xml:space="preserve">       'amm'</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f>VLOOKUP($A22,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>NH~4~^+^</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f>Import!A23</f>
         <v xml:space="preserve">       'n2o'</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f>VLOOKUP($A23,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>N~2~O</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
         <f>Import!A24</f>
         <v xml:space="preserve">       'no2'</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f>VLOOKUP($A24,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>NO~2~</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f>Import!A25</f>
         <v xml:space="preserve">        'n2'</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>VLOOKUP($A25,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>N~2~</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f>Import!A26</f>
         <v xml:space="preserve">       'so4'</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>VLOOKUP($A26,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>SO~4~^2-^</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f>Import!A27</f>
         <v xml:space="preserve">       'h2s'</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>VLOOKUP($A27,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>H~2~S</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f>Import!A28</f>
         <v xml:space="preserve">       'frp'</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f>VLOOKUP($A28,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Reactive dissolved PO~4~^3-^</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f>Import!A29</f>
         <v xml:space="preserve">       'pip'</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f>VLOOKUP($A29,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Adsorbed P</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>Import!A30</f>
         <v xml:space="preserve">       'ch4'</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f>VLOOKUP($A30,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Methane</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f>Import!A31</f>
         <v xml:space="preserve">       'dic'</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f>VLOOKUP($A31,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>∑CO~2~</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f>Import!A32</f>
         <v xml:space="preserve">      'mnii'</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f>VLOOKUP($A32,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Mn^2+^</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f>Import!A33</f>
         <v xml:space="preserve">     'mno2a'</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f>VLOOKUP($A33,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Amorphous MnO~2~</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f>Import!A34</f>
         <v xml:space="preserve">     'mno2b'</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f>VLOOKUP($A34,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Crystalline MnO~2~</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f>Import!A36</f>
         <v xml:space="preserve">      'feii'</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f>VLOOKUP($A35,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Fe^2+^</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f>Import!A37</f>
         <v xml:space="preserve">    'feoh3a'</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f>VLOOKUP($A36,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Amorphous Fe(OH)~3~</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f>Import!A38</f>
         <v xml:space="preserve">    'feoh3b'</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f>VLOOKUP($A37,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Crystalline Fe(OH)~3~</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>Import!A39</f>
         <v xml:space="preserve">       'fes'</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f>VLOOKUP($A38,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>FeS</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f>Import!A40</f>
         <v xml:space="preserve">      'fes2'</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f>VLOOKUP($A39,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>FeS~2~</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>Import!A42</f>
         <v xml:space="preserve">       'ca'</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>VLOOKUP($A40,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Ca^2+^</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f>Import!A43</f>
         <v xml:space="preserve">    'caco3'</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>VLOOKUP($A41,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>CaCO~3~</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f>Import!A44</f>
         <v xml:space="preserve">   'pipvr'</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>VLOOKUP($A42,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Unreactive solid P</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>Import!A45</f>
         <v xml:space="preserve">    'pin'</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>VLOOKUP($A43,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Adsorbed N</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
     </row>
   </sheetData>
@@ -11648,7 +11914,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14723,11 +14989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84A36-5762-4B23-AE16-728E9CC8AC9A}">
   <dimension ref="B2:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14758,7 +15024,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -14772,7 +15038,7 @@
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -14782,6 +15048,12 @@
       <c r="C5" t="s">
         <v>67</v>
       </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -14817,10 +15089,10 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
         <v>118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -14828,14 +15100,14 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D11" t="str">
-        <f>C11</f>
+        <f>C11&amp;$F$5</f>
         <v>Salinity (PSU)</v>
       </c>
       <c r="E11" t="str">
-        <f>C11</f>
+        <f>C11&amp;F5</f>
         <v>Salinity (PSU)</v>
       </c>
     </row>
@@ -14843,16 +15115,25 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -14874,6 +15155,9 @@
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -14895,6 +15179,9 @@
       <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -14916,16 +15203,25 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -14955,7 +15251,7 @@
         <v>Refractory POC (mmol m^-2^ y^-1^)</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24:E29" si="1">C24&amp;$F$3</f>
+        <f t="shared" ref="E24:E28" si="1">C24&amp;$F$3</f>
         <v>Refractory POC (mmol m^-3^ solids)</v>
       </c>
     </row>
@@ -15043,6 +15339,13 @@
       <c r="B30" t="s">
         <v>40</v>
       </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="str">
+        <f>C30&amp;$F$4</f>
+        <v>NO~3~^-^ (mmol m^-3^ porewater)</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
@@ -15064,16 +15367,25 @@
       <c r="B32" t="s">
         <v>42</v>
       </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -15127,21 +15439,33 @@
       <c r="B38" t="s">
         <v>48</v>
       </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>49</v>
       </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>50</v>
       </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>51</v>
       </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
@@ -15163,6 +15487,9 @@
       <c r="B43" t="s">
         <v>53</v>
       </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -15173,6 +15500,9 @@
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
@@ -15194,6 +15524,9 @@
       <c r="B47" t="s">
         <v>57</v>
       </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
@@ -15236,13 +15569,16 @@
       <c r="B51" t="s">
         <v>61</v>
       </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D52" t="str">
         <f>C52&amp;F2</f>
@@ -15272,6 +15608,9 @@
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
